--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-patient-type</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-patient-type</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-patient-type</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-patient-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30</t>
+    <t>2023-02-17T09:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -240,21 +240,21 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
     <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -1218,10 +1218,10 @@
         <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>73</v>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1246,7 +1246,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1321,7 +1321,7 @@
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1346,10 +1346,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>73</v>
@@ -1424,7 +1424,7 @@
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>73</v>
@@ -1454,7 +1454,7 @@
         <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
@@ -1529,7 +1529,7 @@
         <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
@@ -1557,7 +1557,7 @@
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -1632,7 +1632,7 @@
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
@@ -1735,7 +1735,7 @@
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
@@ -1760,10 +1760,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>73</v>
@@ -1837,10 +1837,10 @@
         <v>105</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>73</v>
@@ -1865,10 +1865,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>73</v>
@@ -1943,7 +1943,7 @@
         <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>73</v>
@@ -1971,7 +1971,7 @@
         <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>73</v>
@@ -2046,7 +2046,7 @@
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>73</v>
@@ -2074,7 +2074,7 @@
         <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>73</v>
@@ -2151,7 +2151,7 @@
         <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>73</v>
@@ -2179,7 +2179,7 @@
         <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
@@ -2258,7 +2258,7 @@
         <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>73</v>
@@ -2286,7 +2286,7 @@
         <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -2361,7 +2361,7 @@
         <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>73</v>
@@ -2389,7 +2389,7 @@
         <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>73</v>
@@ -2466,7 +2466,7 @@
         <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>73</v>
@@ -2494,7 +2494,7 @@
         <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
@@ -2573,7 +2573,7 @@
         <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
@@ -2601,7 +2601,7 @@
         <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>73</v>
@@ -2678,7 +2678,7 @@
         <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>73</v>
@@ -2706,7 +2706,7 @@
         <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -2783,7 +2783,7 @@
         <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>73</v>
@@ -2811,7 +2811,7 @@
         <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -2888,7 +2888,7 @@
         <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>73</v>
@@ -2916,7 +2916,7 @@
         <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -2995,7 +2995,7 @@
         <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>73</v>
@@ -3023,7 +3023,7 @@
         <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>73</v>
@@ -3102,7 +3102,7 @@
         <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>73</v>
@@ -3129,10 +3129,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>73</v>
@@ -3207,7 +3207,7 @@
         <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>73</v>
@@ -3235,7 +3235,7 @@
         <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>73</v>
@@ -3310,7 +3310,7 @@
         <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>73</v>
@@ -3413,7 +3413,7 @@
         <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>73</v>
@@ -3438,10 +3438,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>73</v>
@@ -3515,10 +3515,10 @@
         <v>105</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>73</v>
@@ -3543,10 +3543,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>73</v>
@@ -3621,7 +3621,7 @@
         <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>73</v>
@@ -3649,7 +3649,7 @@
         <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>73</v>
@@ -3724,7 +3724,7 @@
         <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>73</v>
@@ -3752,7 +3752,7 @@
         <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>73</v>
@@ -3829,7 +3829,7 @@
         <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>73</v>
@@ -3854,10 +3854,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>73</v>
@@ -3934,7 +3934,7 @@
         <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>73</v>
@@ -3959,10 +3959,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>73</v>
@@ -4039,7 +4039,7 @@
         <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>73</v>
@@ -4064,10 +4064,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>73</v>
@@ -4141,10 +4141,10 @@
         <v>105</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>73</v>
@@ -4247,7 +4247,7 @@
         <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>73</v>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:09:31+00:00</t>
+    <t>2023-02-17T09:40:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:40:52+00:00</t>
+    <t>2023-02-17T11:17:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
